--- a/TestData/QueueSearch_ValidData.xlsx
+++ b/TestData/QueueSearch_ValidData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>${Doctor}</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>${Slot}</t>
+  </si>
+  <si>
+    <t>05-22-2024</t>
   </si>
 </sst>
 </file>
@@ -1017,11 +1020,11 @@
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
-        <v>45450</v>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
